--- a/ProjectLog (1).xlsx
+++ b/ProjectLog (1).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>Task</t>
   </si>
@@ -192,6 +193,57 @@
   </si>
   <si>
     <t>11/30/2016</t>
+  </si>
+  <si>
+    <t>Still broken, game crashes when player moves near guard - removed for now</t>
+  </si>
+  <si>
+    <t>Added day night cycle</t>
+  </si>
+  <si>
+    <t>01/20/2017</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Added a day night cycle, time taken to do a full day night cycle can now be changed</t>
+  </si>
+  <si>
+    <t>Added signs</t>
+  </si>
+  <si>
+    <t>Asset Store things used</t>
+  </si>
+  <si>
+    <t>Libraries used</t>
+  </si>
+  <si>
+    <t>Added tutorial signs that players can look at, no text added yet,fixed a bug where sign would fall over</t>
+  </si>
+  <si>
+    <t>Oopsy Daisies</t>
+  </si>
+  <si>
+    <t>Deleted all scripts 11/02/2017</t>
+  </si>
+  <si>
+    <t>Dialogue boxes added</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Movement broken</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>NPC dialogue added</t>
+  </si>
+  <si>
+    <t>Text on signs broken</t>
   </si>
 </sst>
 </file>
@@ -553,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,10 +617,12 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="93" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -576,8 +630,17 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -593,8 +656,11 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -611,7 +677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -628,7 +694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -645,7 +711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -662,7 +728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -679,7 +745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -696,7 +762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -713,7 +779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -730,7 +796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -747,7 +813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -764,7 +830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -781,7 +847,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -798,7 +864,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -815,7 +881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -826,7 +892,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -837,7 +903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -851,23 +917,29 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
       <c r="E21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -875,12 +947,63 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43010</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43010</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43041</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectLog (1).xlsx
+++ b/ProjectLog (1).xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26160" windowHeight="8985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
   <si>
     <t>Task</t>
   </si>
@@ -240,10 +239,22 @@
     <t>Fixed</t>
   </si>
   <si>
-    <t>NPC dialogue added</t>
-  </si>
-  <si>
     <t>Text on signs broken</t>
+  </si>
+  <si>
+    <t>Guard kind of fixed</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>NPC dialogue added, need to disable movement when talking to NPC</t>
+  </si>
+  <si>
+    <t>Need to make guard stop a bit away and stop all movement, as at the moment the guard will be humping leg</t>
   </si>
 </sst>
 </file>
@@ -605,24 +616,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="93" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -640,7 +651,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +671,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -677,7 +688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -694,7 +705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -711,7 +722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -728,7 +739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -745,7 +756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -762,7 +773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -779,7 +790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -796,7 +807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -813,7 +824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -830,7 +841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -847,7 +858,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -864,7 +875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -881,7 +892,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -892,7 +903,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -903,7 +914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -917,7 +928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -928,7 +939,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -939,7 +950,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -947,7 +958,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -955,7 +966,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -969,7 +980,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -983,10 +994,10 @@
         <v>64</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -997,13 +1008,30 @@
         <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F26" t="s">
         <v>69</v>
       </c>
       <c r="G26" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectLog (1).xlsx
+++ b/ProjectLog (1).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34725" windowHeight="17760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
   <si>
     <t>Task</t>
   </si>
@@ -255,6 +255,30 @@
   </si>
   <si>
     <t>Need to make guard stop a bit away and stop all movement, as at the moment the guard will be humping leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made map look better, changed a few of the mountains </t>
+  </si>
+  <si>
+    <t>Added a "stage"</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>Simply trying to pretty up the map</t>
+  </si>
+  <si>
+    <t>Added a labyrinth into the stage will add more</t>
+  </si>
+  <si>
+    <t>Switch scene on objective completion</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
   </si>
 </sst>
 </file>
@@ -616,24 +640,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="93" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -651,7 +675,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -671,7 +695,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -688,7 +712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -705,7 +729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -722,7 +746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -739,7 +763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -756,7 +780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -773,7 +797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -790,7 +814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -807,7 +831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -824,7 +848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -841,7 +865,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -858,7 +882,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -875,7 +899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -892,7 +916,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -903,7 +927,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -914,7 +938,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -928,7 +952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -939,7 +963,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -950,7 +974,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -958,7 +982,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -966,7 +990,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -980,7 +1004,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -997,7 +1021,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -1017,7 +1041,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -1032,6 +1056,42 @@
       </c>
       <c r="E27" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="1">
+        <v>42858</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43011</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectLog (1).xlsx
+++ b/ProjectLog (1).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
   <si>
     <t>Task</t>
   </si>
@@ -279,6 +279,24 @@
   </si>
   <si>
     <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>Added RAIN AI</t>
+  </si>
+  <si>
+    <t>AI patrol route added, currently will clip through wall</t>
+  </si>
+  <si>
+    <t>Labyrinth</t>
+  </si>
+  <si>
+    <t>Fixed and added more things to labyrinth, made it look better</t>
+  </si>
+  <si>
+    <t>Added torches</t>
+  </si>
+  <si>
+    <t>Torches</t>
   </si>
 </sst>
 </file>
@@ -640,16 +658,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="93" bestFit="1" customWidth="1"/>
@@ -1094,6 +1112,45 @@
         <v>84</v>
       </c>
     </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="1">
+        <v>42798</v>
+      </c>
+      <c r="C31" s="1">
+        <v>42951</v>
+      </c>
+      <c r="E31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="1">
+        <v>42798</v>
+      </c>
+      <c r="C32" s="1">
+        <v>42951</v>
+      </c>
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43012</v>
+      </c>
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ProjectLog (1).xlsx
+++ b/ProjectLog (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>Task</t>
   </si>
@@ -284,9 +284,6 @@
     <t>Added RAIN AI</t>
   </si>
   <si>
-    <t>AI patrol route added, currently will clip through wall</t>
-  </si>
-  <si>
     <t>Labyrinth</t>
   </si>
   <si>
@@ -297,6 +294,12 @@
   </si>
   <si>
     <t>Torches</t>
+  </si>
+  <si>
+    <t>AI patrol route added, currently will clip through wall, AI will now move to player</t>
+  </si>
+  <si>
+    <t>AI can see through walls and will stop once he reaches player</t>
   </si>
 </sst>
 </file>
@@ -661,7 +664,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1117,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="1">
         <v>42798</v>
@@ -1123,12 +1126,12 @@
         <v>42951</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="1">
         <v>42798</v>
@@ -1137,10 +1140,10 @@
         <v>42951</v>
       </c>
       <c r="E32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -1148,7 +1151,10 @@
         <v>43012</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+      <c r="F33" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectLog (1).xlsx
+++ b/ProjectLog (1).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34725" windowHeight="17760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
   <si>
     <t>Task</t>
   </si>
@@ -300,6 +300,15 @@
   </si>
   <si>
     <t>AI can see through walls and will stop once he reaches player</t>
+  </si>
+  <si>
+    <t>AI Tweaking</t>
+  </si>
+  <si>
+    <t>AI patrols will follow players until a certain distance (players can outrun them barely) and then AI will resume patrolling</t>
+  </si>
+  <si>
+    <t>Guard AI that guard places</t>
   </si>
 </sst>
 </file>
@@ -661,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,6 +1166,19 @@
         <v>91</v>
       </c>
     </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ProjectLog (1).xlsx
+++ b/ProjectLog (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
   <si>
     <t>Task</t>
   </si>
@@ -309,6 +309,36 @@
   </si>
   <si>
     <t>Guard AI that guard places</t>
+  </si>
+  <si>
+    <t>More things added</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Added a new stage, fixed AI, where adding more AI will require their own scripts</t>
+  </si>
+  <si>
+    <t>Objectives</t>
+  </si>
+  <si>
+    <t>Ability to swap to another scene if player makes it to exit.</t>
+  </si>
+  <si>
+    <t>Torch</t>
+  </si>
+  <si>
+    <t>Rain AI</t>
+  </si>
+  <si>
+    <t>Probuilder</t>
+  </si>
+  <si>
+    <t>FPS</t>
   </si>
 </sst>
 </file>
@@ -670,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,6 +751,12 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
       <c r="L2" t="s">
         <v>66</v>
       </c>
@@ -741,6 +777,9 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
+      <c r="I3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -758,6 +797,9 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
+      <c r="I4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1177,6 +1219,34 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectLog (1).xlsx
+++ b/ProjectLog (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="111">
   <si>
     <t>Task</t>
   </si>
@@ -339,6 +339,24 @@
   </si>
   <si>
     <t>FPS</t>
+  </si>
+  <si>
+    <t>Health Script</t>
+  </si>
+  <si>
+    <t>Scripting</t>
+  </si>
+  <si>
+    <t>YounGen Tech</t>
+  </si>
+  <si>
+    <t>Health Bar</t>
+  </si>
+  <si>
+    <t>04/22/2017</t>
+  </si>
+  <si>
+    <t>Added a health bar. Depletes health on mouse clicks</t>
   </si>
 </sst>
 </file>
@@ -700,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,6 +852,9 @@
       <c r="E6" t="s">
         <v>15</v>
       </c>
+      <c r="I6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -851,6 +872,14 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
+      <c r="I7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1247,6 +1276,20 @@
       </c>
       <c r="E37" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
